--- a/doc/cookbook/operation/operation-posttime.xlsx
+++ b/doc/cookbook/operation/operation-posttime.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="263" yWindow="1943" windowWidth="22718" windowHeight="5895" tabRatio="768" activeTab="10"/>
+    <workbookView xWindow="263" yWindow="1943" windowWidth="22718" windowHeight="5895" tabRatio="768" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="buffer" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14059" uniqueCount="6479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14064" uniqueCount="6479">
   <si>
     <t>name</t>
   </si>
@@ -68689,8 +68689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -69006,10 +69006,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -69017,12 +69017,13 @@
     <col min="1" max="1" width="26.53125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -69032,17 +69033,20 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6469</v>
       </c>
@@ -69052,17 +69056,20 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2" t="s">
+        <v>6463</v>
+      </c>
+      <c r="E2" s="1">
         <v>41640</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>32</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6470</v>
       </c>
@@ -69072,17 +69079,20 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2" t="s">
+        <v>6463</v>
+      </c>
+      <c r="E3" s="1">
         <v>41646</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6471</v>
       </c>
@@ -69092,17 +69102,20 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2" t="s">
+        <v>6463</v>
+      </c>
+      <c r="E4" s="1">
         <v>41654</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6472</v>
       </c>
@@ -69112,13 +69125,16 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2" t="s">
+        <v>6463</v>
+      </c>
+      <c r="E5" s="1">
         <v>41660</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>32</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5</v>
       </c>
     </row>
@@ -69263,7 +69279,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/doc/cookbook/operation/operation-posttime.xlsx
+++ b/doc/cookbook/operation/operation-posttime.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple.community\doc\cookbook\operation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="263" yWindow="1943" windowWidth="22718" windowHeight="5895" tabRatio="768" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16493" windowHeight="7545" tabRatio="768"/>
   </bookViews>
   <sheets>
     <sheet name="buffer" sheetId="1" r:id="rId1"/>
@@ -26,6 +21,7 @@
     <sheet name="parameter" sheetId="19" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1:L24"/>
 </workbook>
 </file>
 
@@ -19814,8 +19810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19874,8 +19870,8 @@
       <c r="C3" t="s">
         <v>6463</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="D3" s="2" t="s">
+        <v>6474</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -69008,7 +69004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -69239,7 +69235,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
